--- a/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 20,51</t>
+          <t>0,0; 88,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 29,54</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 21,51</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 23,74</t>
+          <t>0,0; 57,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 18,81</t>
+          <t>9,84; 67,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 16,35</t>
+          <t>0,0; 60,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 23,52</t>
+          <t>0,0; 63,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 19,43</t>
+          <t>0,0; 34,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,73</t>
+          <t>17,79; 59,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,62</t>
+          <t>0,0; 41,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 19,12</t>
+          <t>0,0; 56,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 19,31</t>
+          <t>0,0; 32,53</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 33,5</t>
+          <t>4,61; 20,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 25,78</t>
+          <t>9,14; 29,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 28,07</t>
+          <t>4,82; 21,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 17,11</t>
+          <t>7,43; 23,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 36,24</t>
+          <t>3,23; 18,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 15,62</t>
+          <t>3,08; 16,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,85; 40,87</t>
+          <t>6,38; 23,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 18,9</t>
+          <t>3,47; 19,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 30,34</t>
+          <t>5,54; 16,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 17,37</t>
+          <t>7,72; 20,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 30,13</t>
+          <t>7,78; 19,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 13,49</t>
+          <t>7,27; 19,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,48</t>
+          <t>7,55; 28,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>4,03; 20,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>2,12; 21,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,29</t>
+          <t>5,57; 23,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 67,63</t>
+          <t>2,44; 20,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,19</t>
+          <t>6,28; 26,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,81</t>
+          <t>2,06; 18,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,92</t>
+          <t>4,53; 20,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 59,86</t>
+          <t>7,27; 21,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,72</t>
+          <t>6,2; 18,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,37</t>
+          <t>2,79; 15,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,53</t>
+          <t>6,21; 18,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 28,27</t>
+          <t>11,64; 33,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 20,48</t>
+          <t>6,85; 25,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 21,54</t>
+          <t>6,77; 28,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 23,79</t>
+          <t>1,87; 17,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 20,48</t>
+          <t>8,68; 36,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 26,44</t>
+          <t>1,49; 15,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,4</t>
+          <t>12,85; 40,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 20,71</t>
+          <t>2,1; 18,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 21,41</t>
+          <t>13,71; 30,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 18,48</t>
+          <t>5,42; 17,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,21</t>
+          <t>11,94; 30,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 18,39</t>
+          <t>2,98; 13,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 67,63</t>
+          <t>9,65; 68,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,19</t>
+          <t>0,0; 58,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,81</t>
+          <t>0,0; 53,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 59,86</t>
+          <t>12,72; 59,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,72</t>
+          <t>0,0; 49,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,37</t>
+          <t>0,0; 56,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 25,17</t>
+          <t>2,86; 25,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,72</t>
+          <t>2,17; 19,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,97; 48,4</t>
+          <t>14,35; 48,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,88</t>
+          <t>0,0; 16,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 37,64</t>
+          <t>9,27; 36,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 43,18</t>
+          <t>11,75; 42,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,34</t>
+          <t>0,0; 21,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 34,59</t>
+          <t>3,64; 30,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 25,86</t>
+          <t>8,94; 24,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 26,1</t>
+          <t>8,78; 25,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 29,81</t>
+          <t>9,4; 31,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,66</t>
+          <t>2,1; 18,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 20,51</t>
+          <t>4,63; 21,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 29,54</t>
+          <t>10,35; 31,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 21,51</t>
+          <t>4,83; 20,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 23,74</t>
+          <t>7,16; 24,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 18,81</t>
+          <t>3,16; 19,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 16,35</t>
+          <t>3,06; 16,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 23,52</t>
+          <t>6,76; 23,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 19,43</t>
+          <t>3,48; 19,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,73</t>
+          <t>5,67; 17,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,62</t>
+          <t>7,8; 20,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 19,12</t>
+          <t>6,96; 19,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 19,31</t>
+          <t>7,09; 18,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 28,27</t>
+          <t>8,12; 28,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 20,48</t>
+          <t>3,45; 18,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 21,54</t>
+          <t>2,16; 20,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 23,79</t>
+          <t>5,07; 23,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 20,48</t>
+          <t>2,46; 18,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 26,44</t>
+          <t>6,17; 25,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,4</t>
+          <t>2,04; 16,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 20,71</t>
+          <t>4,15; 20,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 21,41</t>
+          <t>7,3; 20,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 18,48</t>
+          <t>6,5; 19,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,21</t>
+          <t>2,91; 14,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 18,39</t>
+          <t>6,31; 18,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,64; 33,5</t>
+          <t>11,86; 34,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 25,78</t>
+          <t>7,03; 25,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 28,07</t>
+          <t>5,32; 27,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 17,11</t>
+          <t>1,86; 15,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 36,24</t>
+          <t>8,76; 34,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 15,62</t>
+          <t>1,71; 15,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,85; 40,87</t>
+          <t>13,41; 40,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 18,9</t>
+          <t>2,06; 19,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 30,34</t>
+          <t>13,79; 30,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 17,37</t>
+          <t>5,65; 16,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,94; 30,13</t>
+          <t>13,08; 30,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 13,49</t>
+          <t>3,13; 13,58</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 21,39</t>
+          <t>11,36; 21,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,5</t>
+          <t>8,51; 17,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,39; 21,01</t>
+          <t>9,86; 20,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 15,4</t>
+          <t>6,85; 14,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 22,33</t>
+          <t>10,67; 21,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 17,45</t>
+          <t>7,63; 16,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 19,74</t>
+          <t>9,28; 19,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 14,86</t>
+          <t>6,11; 14,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,96</t>
+          <t>12,48; 19,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 16,14</t>
+          <t>9,56; 15,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,03; 19,7</t>
+          <t>10,98; 18,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 13,25</t>
+          <t>7,38; 13,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,48</t>
+          <t>0,0; 84,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,59 +734,59 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 85,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,29</t>
+          <t>0,0; 60,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 68,66</t>
+          <t>9,33; 63,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,84</t>
+          <t>0,0; 60,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,01</t>
+          <t>0,0; 67,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,92</t>
+          <t>0,0; 36,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 59,51</t>
+          <t>13,55; 61,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,57</t>
+          <t>0,0; 46,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,58</t>
+          <t>0,0; 56,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,53</t>
+          <t>0,0; 32,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 25,4</t>
+          <t>2,83; 25,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 19,74</t>
+          <t>2,18; 19,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 48,27</t>
+          <t>14,47; 50,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,44</t>
+          <t>0,0; 15,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 36,29</t>
+          <t>9,5; 36,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 42,05</t>
+          <t>12,11; 41,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,22</t>
+          <t>0,0; 18,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 30,96</t>
+          <t>3,72; 36,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 24,98</t>
+          <t>8,8; 26,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 25,92</t>
+          <t>8,25; 25,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 31,09</t>
+          <t>8,08; 29,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 18,7</t>
+          <t>2,17; 18,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 21,05</t>
+          <t>5,0; 22,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 31,9</t>
+          <t>8,59; 29,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 20,6</t>
+          <t>4,83; 20,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 24,69</t>
+          <t>7,46; 23,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 19,05</t>
+          <t>4,61; 19,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 16,09</t>
+          <t>3,06; 16,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 23,5</t>
+          <t>6,35; 23,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 19,62</t>
+          <t>3,28; 19,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 17,34</t>
+          <t>5,61; 16,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 20,03</t>
+          <t>7,76; 20,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 19,3</t>
+          <t>8,04; 19,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 18,55</t>
+          <t>7,69; 18,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 28,84</t>
+          <t>7,83; 27,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 18,65</t>
+          <t>3,99; 20,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 20,07</t>
+          <t>2,12; 20,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 23,05</t>
+          <t>5,42; 21,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 18,91</t>
+          <t>2,4; 18,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 25,99</t>
+          <t>6,14; 26,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 16,28</t>
+          <t>2,0; 18,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 20,06</t>
+          <t>4,46; 19,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 20,83</t>
+          <t>6,74; 20,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,2</t>
+          <t>6,16; 17,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 14,34</t>
+          <t>3,21; 15,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 18,34</t>
+          <t>6,13; 17,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 34,68</t>
+          <t>12,49; 34,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 25,17</t>
+          <t>6,81; 26,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 27,29</t>
+          <t>5,41; 28,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 15,13</t>
+          <t>1,87; 17,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 34,93</t>
+          <t>8,61; 37,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 15,6</t>
+          <t>1,7; 16,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 40,94</t>
+          <t>13,42; 42,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 19,89</t>
+          <t>2,12; 19,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 30,98</t>
+          <t>13,76; 30,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 16,75</t>
+          <t>5,76; 17,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,08; 30,51</t>
+          <t>11,87; 28,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,58</t>
+          <t>2,34; 13,23</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 21,37</t>
+          <t>11,5; 21,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,89</t>
+          <t>8,77; 17,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,5</t>
+          <t>10,38; 20,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,69</t>
+          <t>6,63; 15,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 21,79</t>
+          <t>10,52; 22,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 16,47</t>
+          <t>8,37; 17,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,09</t>
+          <t>8,66; 20,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,81</t>
+          <t>6,29; 14,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,72</t>
+          <t>12,48; 19,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,56</t>
+          <t>9,37; 15,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,98; 18,53</t>
+          <t>10,8; 18,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,3</t>
+          <t>7,38; 13,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,35</t>
+          <t>14,74; 39,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>11,13; 38,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,2</t>
+          <t>0,0; 23,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,05</t>
+          <t>3,32; 26,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 63,89</t>
+          <t>7,1; 29,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,33</t>
+          <t>1,98; 18,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,37</t>
+          <t>15,62; 48,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,56</t>
+          <t>0,0; 15,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,55; 61,35</t>
+          <t>12,78; 29,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,85</t>
+          <t>8,57; 23,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,22</t>
+          <t>9,62; 28,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,15</t>
+          <t>3,29; 15,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 25,89</t>
+          <t>3,23; 18,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 19,44</t>
+          <t>3,08; 16,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 50,27</t>
+          <t>6,38; 23,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,16</t>
+          <t>3,05; 18,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 36,19</t>
+          <t>4,61; 20,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 41,94</t>
+          <t>9,14; 29,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,94</t>
+          <t>4,82; 21,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 36,36</t>
+          <t>7,29; 24,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 26,79</t>
+          <t>5,54; 16,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 25,86</t>
+          <t>7,72; 20,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,08; 29,53</t>
+          <t>7,78; 19,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 18,62</t>
+          <t>6,96; 19,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 22,17</t>
+          <t>2,44; 20,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 29,79</t>
+          <t>6,28; 26,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 20,95</t>
+          <t>2,06; 18,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 23,66</t>
+          <t>1,81; 16,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 19,83</t>
+          <t>7,55; 28,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 16,53</t>
+          <t>4,03; 20,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 23,78</t>
+          <t>2,12; 21,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 19,74</t>
+          <t>5,46; 23,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,48</t>
+          <t>7,27; 21,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 20,4</t>
+          <t>6,2; 18,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 19,3</t>
+          <t>2,79; 15,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 18,61</t>
+          <t>4,28; 16,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 27,75</t>
+          <t>8,68; 36,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 20,37</t>
+          <t>1,49; 15,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 20,12</t>
+          <t>12,85; 40,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 21,55</t>
+          <t>1,96; 18,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 18,53</t>
+          <t>11,64; 33,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 26,16</t>
+          <t>6,85; 25,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 18,42</t>
+          <t>6,77; 28,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 19,56</t>
+          <t>1,73; 16,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 20,78</t>
+          <t>13,71; 30,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 17,87</t>
+          <t>5,42; 17,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 15,1</t>
+          <t>11,94; 30,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 17,89</t>
+          <t>2,77; 13,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>9,33%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 34,68</t>
+          <t>10,94; 22,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 26,32</t>
+          <t>8,09; 17,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 28,42</t>
+          <t>9,42; 19,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 17,84</t>
+          <t>4,34; 12,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 37,11</t>
+          <t>11,61; 21,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,08</t>
+          <t>8,66; 17,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,42; 42,13</t>
+          <t>10,39; 21,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 19,22</t>
+          <t>6,57; 15,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 30,23</t>
+          <t>12,64; 19,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 17,82</t>
+          <t>9,27; 16,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 28,77</t>
+          <t>11,03; 19,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 13,23</t>
+          <t>6,45; 12,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,69%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,45%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>15,89%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>12,39%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,5; 21,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,77; 17,8</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,38; 20,65</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 15,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10,52; 22,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,37; 17,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,66; 20,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 14,67</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>12,48; 19,79</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>9,37; 15,66</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>10,8; 18,05</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>7,38; 13,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
